--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1637922.480580997</v>
+        <v>1635670.400869789</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>138.8437204680931</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>213.8614881801114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.908902023989823</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.5873298926969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>111.6770057037272</v>
       </c>
       <c r="W5" t="n">
-        <v>178.7060423383819</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>173.6268892744748</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>225.48552678711</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>52.50373090971367</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>112.0789181391344</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>63.13355668550192</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>71.67037196991727</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>28.42659968729146</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>201.4105577836242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>41.55695577161244</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833345</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>249.6700188375714</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520995</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>185.6920487814947</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.019807611472247</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>120.7871326503928</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012564</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.400891308157</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.438374367745</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.172675760994</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.60582160917</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.14006334809</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.000731372279</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>372.8549345700854</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621287</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251681</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271508</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143256</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2643.001872527934</v>
       </c>
       <c r="W5" t="n">
-        <v>2828.826251643334</v>
+        <v>2290.233217257819</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>1916.76745899674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1751.913851851648</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1530.147236421175</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1241.044369546818</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V7" t="n">
-        <v>986.3598813409312</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>696.9427113039706</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078694</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>916.6290841382822</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>558.3633855315318</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>172.5751329332875</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379707</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118627</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142816</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4881,52 +4881,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.900232967364</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597744</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>448.1846595309951</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>584.5295404712656</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6164468888725</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>289.7264993909621</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>122.530400105842</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,37 +5255,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>444.7013164925226</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,25 +5765,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998238</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703062</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,13 +6543,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2259.395357538347</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1970.320130882545</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>576.8388927589092</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2442.902671851501</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2260.047837506405</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.446372529346</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.371145873544</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.686657667657</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1207.269487630696</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>979.2799367326791</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>758.4873575891489</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6932,28 +6932,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6962,16 +6962,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797186</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E40" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7342,40 +7342,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782912</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7625,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823012</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>111.8681131589324</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>103.8640922513188</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823572</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>36.51445555167274</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,10 +24886,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>31.71340154579357</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>62.35543909864944</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194223</v>
+        <v>46.45968844823507</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>63.36835372228751</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393517</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>914124.9382209337</v>
+        <v>914124.9382209335</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>914124.9382209337</v>
+        <v>914124.9382209335</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292283</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
@@ -26329,16 +26329,16 @@
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993965.5468653585</v>
+        <v>-993965.5468653586</v>
       </c>
       <c r="C6" t="n">
-        <v>334779.1988622336</v>
+        <v>334779.1988622338</v>
       </c>
       <c r="D6" t="n">
-        <v>334779.1988622334</v>
+        <v>334779.1988622339</v>
       </c>
       <c r="E6" t="n">
-        <v>86333.32195043583</v>
+        <v>86298.58402499958</v>
       </c>
       <c r="F6" t="n">
-        <v>411745.7837577909</v>
+        <v>411711.0458323554</v>
       </c>
       <c r="G6" t="n">
-        <v>411745.7837577907</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="H6" t="n">
-        <v>411745.7837577912</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="I6" t="n">
-        <v>411745.783757791</v>
+        <v>411711.0458323551</v>
       </c>
       <c r="J6" t="n">
-        <v>194214.5813605133</v>
+        <v>194179.8434350781</v>
       </c>
       <c r="K6" t="n">
-        <v>411745.7837577912</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="L6" t="n">
-        <v>411745.783757791</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="M6" t="n">
-        <v>326690.7558222793</v>
+        <v>326656.0178968436</v>
       </c>
       <c r="N6" t="n">
-        <v>411745.783757791</v>
+        <v>411711.0458323553</v>
       </c>
       <c r="O6" t="n">
-        <v>411745.7837577909</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="P6" t="n">
-        <v>411745.783757791</v>
+        <v>411711.0458323553</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>226.4291713029144</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>157.337919074638</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>69.99732345939788</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>216.0752527664077</v>
       </c>
       <c r="W5" t="n">
-        <v>170.5349263790311</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>16.1421360569671</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>60.72631141850283</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>354.3723148319978</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>102.8922515735263</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>118.0986533615246</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-3.232838081714498e-12</v>
       </c>
     </row>
     <row r="29">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>145.702108592965</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,19 +32078,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,7 +34217,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>18.86448192629835</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,7 +36671,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899029</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294884</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
